--- a/BiblioPhillyKeywords-list.xlsx
+++ b/BiblioPhillyKeywords-list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
   <si>
     <t>Book Type</t>
   </si>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>Church Fathers</t>
+  </si>
+  <si>
+    <t>Marginalia</t>
   </si>
 </sst>
 </file>
@@ -939,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A197"/>
+  <dimension ref="A1:A198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185:A197"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1905,6 +1908,11 @@
         <v>189</v>
       </c>
     </row>
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
